--- a/reports.xlsx
+++ b/reports.xlsx
@@ -480,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>159548</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
